--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.8177200148539</v>
+        <v>477.4756568331772</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.3050314451632</v>
+        <v>653.3032584184588</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.394516163404</v>
+        <v>590.9529123518823</v>
       </c>
       <c r="AD2" t="n">
-        <v>435817.7200148539</v>
+        <v>477475.6568331772</v>
       </c>
       <c r="AE2" t="n">
-        <v>596305.0314451632</v>
+        <v>653303.2584184587</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.568295346232457e-06</v>
+        <v>4.341830711864306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>539394.516163404</v>
+        <v>590952.9123518823</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.0633496784248</v>
+        <v>204.2214614375953</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.7929100460486</v>
+        <v>279.4248131538008</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.1937270522588</v>
+        <v>252.7569011616724</v>
       </c>
       <c r="AD3" t="n">
-        <v>173063.3496784248</v>
+        <v>204221.4614375953</v>
       </c>
       <c r="AE3" t="n">
-        <v>236792.9100460486</v>
+        <v>279424.8131538007</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.352316010195917e-06</v>
+        <v>7.357806160622536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.655555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>214193.7270522588</v>
+        <v>252756.9011616724</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.0010489396096</v>
+        <v>204.15916069878</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.7076674266872</v>
+        <v>279.3395705344393</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.1166198688503</v>
+        <v>252.679793978264</v>
       </c>
       <c r="AD4" t="n">
-        <v>173001.0489396096</v>
+        <v>204159.16069878</v>
       </c>
       <c r="AE4" t="n">
-        <v>236707.6674266871</v>
+        <v>279339.5705344393</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.363986764396349e-06</v>
+        <v>7.377536149656852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.643055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>214116.6198688503</v>
+        <v>252679.793978264</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.7421369282777</v>
+        <v>289.9285891138375</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.3906507596152</v>
+        <v>396.6930863721796</v>
       </c>
       <c r="AC2" t="n">
-        <v>321.4726658450278</v>
+        <v>358.8332549710615</v>
       </c>
       <c r="AD2" t="n">
-        <v>259742.1369282777</v>
+        <v>289928.5891138375</v>
       </c>
       <c r="AE2" t="n">
-        <v>355390.6507596152</v>
+        <v>396693.0863721796</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476185305421268e-06</v>
+        <v>6.020026452273427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.029166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>321472.6658450278</v>
+        <v>358833.2549710615</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.5594714352872</v>
+        <v>199.7458341122956</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.9987492535919</v>
+        <v>273.3010623965866</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.8571142371856</v>
+        <v>247.2175925819867</v>
       </c>
       <c r="AD3" t="n">
-        <v>169559.4714352872</v>
+        <v>199745.8341122956</v>
       </c>
       <c r="AE3" t="n">
-        <v>231998.7492535919</v>
+        <v>273301.0623965866</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.325688087578788e-06</v>
+        <v>7.491187731245691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.845833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>209857.1142371856</v>
+        <v>247217.5925819867</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.8194637085736</v>
+        <v>230.0803092006987</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.5065380091797</v>
+        <v>314.80602947511</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.0217035045374</v>
+        <v>284.7613838551362</v>
       </c>
       <c r="AD2" t="n">
-        <v>202819.4637085735</v>
+        <v>230080.3092006987</v>
       </c>
       <c r="AE2" t="n">
-        <v>277506.5380091798</v>
+        <v>314806.02947511</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.766088665982565e-06</v>
+        <v>7.12625017960283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.211111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>251021.7035045373</v>
+        <v>284761.3838551362</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.8019361390582</v>
+        <v>210.121236275383</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.7494295607073</v>
+        <v>287.4971453665542</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.0091331255228</v>
+        <v>260.0588213176326</v>
       </c>
       <c r="AD2" t="n">
-        <v>181801.9361390582</v>
+        <v>210121.236275383</v>
       </c>
       <c r="AE2" t="n">
-        <v>248749.4295607073</v>
+        <v>287497.1453665541</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.08829951527771e-06</v>
+        <v>7.447993841287882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.472222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>225009.1331255228</v>
+        <v>260058.8213176326</v>
       </c>
     </row>
     <row r="3">
@@ -3042,28 +3042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.7464020975617</v>
+        <v>211.0657022338865</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.0416895520285</v>
+        <v>288.7894053578754</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.178061636971</v>
+        <v>261.2277498290808</v>
       </c>
       <c r="AD3" t="n">
-        <v>182746.4020975617</v>
+        <v>211065.7022338865</v>
       </c>
       <c r="AE3" t="n">
-        <v>250041.6895520285</v>
+        <v>288789.4053578754</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087816207615424e-06</v>
+        <v>7.447113359689432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.473611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>226178.061636971</v>
+        <v>261227.7498290808</v>
       </c>
     </row>
   </sheetData>
@@ -3339,28 +3339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.9891264431687</v>
+        <v>259.3971658529246</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.7860015542152</v>
+        <v>354.9186461152673</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.3615129849388</v>
+        <v>321.0457086614738</v>
       </c>
       <c r="AD2" t="n">
-        <v>232989.1264431687</v>
+        <v>259397.1658529245</v>
       </c>
       <c r="AE2" t="n">
-        <v>318786.0015542152</v>
+        <v>354918.6461152673</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366595330767112e-06</v>
+        <v>6.597442129713513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.215277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>288361.5129849387</v>
+        <v>321045.7086614738</v>
       </c>
     </row>
   </sheetData>
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.181176303247</v>
+        <v>323.6230444272747</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.1434196587492</v>
+        <v>442.7953266264813</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.8588546948429</v>
+        <v>400.5355621203933</v>
       </c>
       <c r="AD2" t="n">
-        <v>293181.176303247</v>
+        <v>323623.0444272747</v>
       </c>
       <c r="AE2" t="n">
-        <v>401143.4196587492</v>
+        <v>442795.3266264813</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.224059250676994e-06</v>
+        <v>5.546933351977025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.443055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>362858.8546948429</v>
+        <v>400535.5621203933</v>
       </c>
     </row>
     <row r="3">
@@ -3742,28 +3742,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.2964624277297</v>
+        <v>200.7382410432059</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.007132843199</v>
+        <v>274.6589173413612</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.7692591122762</v>
+        <v>248.4458557565938</v>
       </c>
       <c r="AD3" t="n">
-        <v>170296.4624277297</v>
+        <v>200738.2410432059</v>
       </c>
       <c r="AE3" t="n">
-        <v>233007.132843199</v>
+        <v>274658.9173413612</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.337830612174028e-06</v>
+        <v>7.463156048649702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.788888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>210769.2591122762</v>
+        <v>248445.8557565938</v>
       </c>
     </row>
   </sheetData>
@@ -4039,28 +4039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.8293140349775</v>
+        <v>296.213964620642</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.2464185567571</v>
+        <v>405.2930144317867</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.0558831717058</v>
+        <v>366.6124179667345</v>
       </c>
       <c r="AD2" t="n">
-        <v>261829.3140349775</v>
+        <v>296213.964620642</v>
       </c>
       <c r="AE2" t="n">
-        <v>358246.4185567572</v>
+        <v>405293.0144317867</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.073915289233003e-06</v>
+        <v>6.162156181369177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.087499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>324055.8831717058</v>
+        <v>366612.4179667345</v>
       </c>
     </row>
   </sheetData>
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.7575973813738</v>
+        <v>208.3861903785545</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.2664721345556</v>
+        <v>285.1231790256919</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.6178825133791</v>
+        <v>257.9114229924588</v>
       </c>
       <c r="AD2" t="n">
-        <v>188757.5973813738</v>
+        <v>208386.1903785545</v>
       </c>
       <c r="AE2" t="n">
-        <v>258266.4721345556</v>
+        <v>285123.1790256919</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.097773595235329e-06</v>
+        <v>7.257461530014004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.269444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>233617.8825133791</v>
+        <v>257911.4229924588</v>
       </c>
     </row>
     <row r="3">
@@ -4442,28 +4442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.2883092698175</v>
+        <v>198.9169022669982</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.3101743848229</v>
+        <v>272.1668812759593</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.8981156365988</v>
+        <v>246.1916561156785</v>
       </c>
       <c r="AD3" t="n">
-        <v>179288.3092698175</v>
+        <v>198916.9022669982</v>
       </c>
       <c r="AE3" t="n">
-        <v>245310.174384823</v>
+        <v>272166.8812759593</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.249686959527083e-06</v>
+        <v>7.526511386385852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.081944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>221898.1156365988</v>
+        <v>246191.6561156785</v>
       </c>
     </row>
   </sheetData>
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.7813675899787</v>
+        <v>252.7879426714552</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.8192955567502</v>
+        <v>345.8756153798695</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.7277698054723</v>
+        <v>312.865732087593</v>
       </c>
       <c r="AD2" t="n">
-        <v>222781.3675899787</v>
+        <v>252787.9426714552</v>
       </c>
       <c r="AE2" t="n">
-        <v>304819.2955567502</v>
+        <v>345875.6153798695</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.720968436550226e-06</v>
+        <v>6.489044041340273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.686111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>275727.7698054723</v>
+        <v>312865.732087593</v>
       </c>
     </row>
     <row r="3">
@@ -4845,28 +4845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.7321961117825</v>
+        <v>198.6534303386873</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.8668346591618</v>
+        <v>271.8063873600835</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.8332279829955</v>
+        <v>245.8655672331773</v>
       </c>
       <c r="AD3" t="n">
-        <v>168732.1961117825</v>
+        <v>198653.4303386874</v>
       </c>
       <c r="AE3" t="n">
-        <v>230866.8346591618</v>
+        <v>271806.3873600835</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.311777296562581e-06</v>
+        <v>7.519363104242237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.906944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>208833.2279829955</v>
+        <v>245865.5672331773</v>
       </c>
     </row>
   </sheetData>
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>381.8694093397236</v>
+        <v>423.0485184345288</v>
       </c>
       <c r="AB2" t="n">
-        <v>522.4905727479571</v>
+        <v>578.833646505547</v>
       </c>
       <c r="AC2" t="n">
-        <v>472.6248058050159</v>
+        <v>523.5905756811821</v>
       </c>
       <c r="AD2" t="n">
-        <v>381869.4093397236</v>
+        <v>423048.5184345288</v>
       </c>
       <c r="AE2" t="n">
-        <v>522490.5727479571</v>
+        <v>578833.646505547</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787785897605624e-06</v>
+        <v>4.739051261575497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>472624.8058050158</v>
+        <v>523590.5756811821</v>
       </c>
     </row>
     <row r="3">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.1260468988395</v>
+        <v>203.0529820158155</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.5104510321404</v>
+        <v>277.8260480592486</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.033664126695</v>
+        <v>251.3107199638629</v>
       </c>
       <c r="AD3" t="n">
-        <v>172126.0468988395</v>
+        <v>203052.9820158155</v>
       </c>
       <c r="AE3" t="n">
-        <v>235510.4510321404</v>
+        <v>277826.0480592486</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.350640023555226e-06</v>
+        <v>7.395799695377817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.694444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>213033.664126695</v>
+        <v>251310.7199638629</v>
       </c>
     </row>
     <row r="4">
@@ -5354,28 +5354,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.5926265642419</v>
+        <v>203.5195616812179</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.1488459143858</v>
+        <v>278.4644429414939</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.6111314973719</v>
+        <v>251.8881873345398</v>
       </c>
       <c r="AD4" t="n">
-        <v>172592.6265642419</v>
+        <v>203519.5616812179</v>
       </c>
       <c r="AE4" t="n">
-        <v>236148.8459143857</v>
+        <v>278464.4429414939</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.351669377985189e-06</v>
+        <v>7.39754952968687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.693055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>213611.1314973719</v>
+        <v>251888.1873345398</v>
       </c>
     </row>
   </sheetData>
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.2626006662543</v>
+        <v>208.9164475491237</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.6432428561299</v>
+        <v>285.8487002797596</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.103957923978</v>
+        <v>258.567701516314</v>
       </c>
       <c r="AD2" t="n">
-        <v>180262.6006662543</v>
+        <v>208916.4475491237</v>
       </c>
       <c r="AE2" t="n">
-        <v>246643.2428561299</v>
+        <v>285848.7002797596</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.154061226351083e-06</v>
+        <v>7.490755407920612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>223103.957923978</v>
+        <v>258567.701516314</v>
       </c>
     </row>
     <row r="3">
@@ -5757,28 +5757,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.5587067244227</v>
+        <v>209.2125536072921</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.0483882281931</v>
+        <v>286.2538456518228</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.4704367903567</v>
+        <v>258.9341803826927</v>
       </c>
       <c r="AD3" t="n">
-        <v>180558.7067244227</v>
+        <v>209212.5536072921</v>
       </c>
       <c r="AE3" t="n">
-        <v>247048.3882281931</v>
+        <v>286253.8456518228</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.161220109438774e-06</v>
+        <v>7.5036645682054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.309722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>223470.4367903567</v>
+        <v>258934.1803826927</v>
       </c>
     </row>
   </sheetData>
@@ -6054,28 +6054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2115055368791</v>
+        <v>215.9666670353075</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.5192851810464</v>
+        <v>295.4951216144835</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9420060340292</v>
+        <v>267.2934819376923</v>
       </c>
       <c r="AD2" t="n">
-        <v>188211.5055368791</v>
+        <v>215966.6670353075</v>
       </c>
       <c r="AE2" t="n">
-        <v>257519.2851810464</v>
+        <v>295495.1216144835</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.899775330169111e-06</v>
+        <v>7.275734231231871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.901388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>232942.0060340292</v>
+        <v>267293.4819376923</v>
       </c>
     </row>
   </sheetData>
@@ -9844,28 +9844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.5365601067876</v>
+        <v>247.3185098381864</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.4336538723617</v>
+        <v>338.3920960830479</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.8105121695532</v>
+        <v>306.0964293692723</v>
       </c>
       <c r="AD2" t="n">
-        <v>211536.5601067877</v>
+        <v>247318.5098381864</v>
       </c>
       <c r="AE2" t="n">
-        <v>289433.6538723618</v>
+        <v>338392.0960830479</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.590833693511011e-06</v>
+        <v>6.905306353689884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.630555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>261810.5121695533</v>
+        <v>306096.4293692723</v>
       </c>
     </row>
   </sheetData>
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.4035875492711</v>
+        <v>349.4139212997842</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.6031501740604</v>
+        <v>478.0835421766336</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.4613758416762</v>
+        <v>432.4559199057607</v>
       </c>
       <c r="AD2" t="n">
-        <v>307403.5875492711</v>
+        <v>349413.9212997842</v>
       </c>
       <c r="AE2" t="n">
-        <v>420603.1501740604</v>
+        <v>478083.5421766336</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658486280489295e-06</v>
+        <v>5.48339199798938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.612499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>380461.3758416761</v>
+        <v>432455.9199057607</v>
       </c>
     </row>
   </sheetData>
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.0150584489663</v>
+        <v>231.5751441589359</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.4059152451302</v>
+        <v>316.8513286124331</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.0261226323545</v>
+        <v>286.6114825133891</v>
       </c>
       <c r="AD2" t="n">
-        <v>202015.0584489663</v>
+        <v>231575.1441589359</v>
       </c>
       <c r="AE2" t="n">
-        <v>276405.9152451302</v>
+        <v>316851.3286124331</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.943527435246001e-06</v>
+        <v>6.928622140341384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.419444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>250026.1226323546</v>
+        <v>286611.4825133891</v>
       </c>
     </row>
     <row r="3">
@@ -10544,28 +10544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.1325707469148</v>
+        <v>198.777907802905</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.4146448982318</v>
+        <v>271.976702918184</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.3287559817054</v>
+        <v>246.0196281134522</v>
       </c>
       <c r="AD3" t="n">
-        <v>169132.5707469148</v>
+        <v>198777.907802905</v>
       </c>
       <c r="AE3" t="n">
-        <v>231414.6448982318</v>
+        <v>271976.702918184</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.281425373043038e-06</v>
+        <v>7.522295487728707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>209328.7559817054</v>
+        <v>246019.6281134522</v>
       </c>
     </row>
   </sheetData>
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.9780051207929</v>
+        <v>370.9242913558836</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.4904642084318</v>
+        <v>507.5149794579406</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.4008479752247</v>
+        <v>459.0784621202213</v>
       </c>
       <c r="AD2" t="n">
-        <v>329978.0051207929</v>
+        <v>370924.2913558835</v>
       </c>
       <c r="AE2" t="n">
-        <v>451490.4642084318</v>
+        <v>507514.9794579406</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.996761224570425e-06</v>
+        <v>5.124127727765753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.872222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>408400.8479752247</v>
+        <v>459078.4621202213</v>
       </c>
     </row>
     <row r="3">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.933859666917</v>
+        <v>201.6222391295916</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.8792478658362</v>
+        <v>275.8684425223967</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.5581407011744</v>
+        <v>249.539945551931</v>
       </c>
       <c r="AD3" t="n">
-        <v>170933.859666917</v>
+        <v>201622.2391295916</v>
       </c>
       <c r="AE3" t="n">
-        <v>233879.2478658362</v>
+        <v>275868.4425223967</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.347238748363776e-06</v>
+        <v>7.433293793002033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.737500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>211558.1407011744</v>
+        <v>249539.945551931</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.3664845792152</v>
+        <v>468.2466429918744</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.8497724097465</v>
+        <v>640.6757145254331</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.1321800955767</v>
+        <v>579.5305235251379</v>
       </c>
       <c r="AD2" t="n">
-        <v>411366.4845792152</v>
+        <v>468246.6429918744</v>
       </c>
       <c r="AE2" t="n">
-        <v>562849.7724097465</v>
+        <v>640675.7145254331</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.056887517975919e-06</v>
+        <v>4.408857333793386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>509132.1800955767</v>
+        <v>579530.5235251379</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.3740790507495</v>
+        <v>212.5088109759873</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.2687489674182</v>
+        <v>290.7639304042812</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.1925736274541</v>
+        <v>263.0138289763216</v>
       </c>
       <c r="AD2" t="n">
-        <v>184374.0790507495</v>
+        <v>212508.8109759873</v>
       </c>
       <c r="AE2" t="n">
-        <v>252268.7489674182</v>
+        <v>290763.9304042811</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.005742736528284e-06</v>
+        <v>7.380310745036349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.662500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>228192.5736274541</v>
+        <v>263013.8289763216</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0953032929637</v>
+        <v>201.5229212833193</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.1508274431261</v>
+        <v>275.7325514635328</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3722221574091</v>
+        <v>249.4170237450006</v>
       </c>
       <c r="AD2" t="n">
-        <v>182095.3032929637</v>
+        <v>201522.9212833193</v>
       </c>
       <c r="AE2" t="n">
-        <v>249150.8274431261</v>
+        <v>275732.5514635328</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.162469704468298e-06</v>
+        <v>7.43594835715064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.245833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>225372.2221574091</v>
+        <v>249417.0237450007</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.1073495989973</v>
+        <v>198.5349675893529</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.0625773798297</v>
+        <v>271.6443014002364</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.6741489422574</v>
+        <v>245.7189505298489</v>
       </c>
       <c r="AD3" t="n">
-        <v>179107.3495989973</v>
+        <v>198534.9675893529</v>
       </c>
       <c r="AE3" t="n">
-        <v>245062.5773798297</v>
+        <v>271644.3014002364</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.216397074010608e-06</v>
+        <v>7.53228566731127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.179166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>221674.1489422574</v>
+        <v>245718.9505298489</v>
       </c>
     </row>
   </sheetData>
